--- a/inst/extdata/ex03/User_12102018.xlsx
+++ b/inst/extdata/ex03/User_12102018.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11400"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11400" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Blank" sheetId="3" r:id="rId1"/>
@@ -49,12 +49,6 @@
     <t>BLANK</t>
   </si>
   <si>
-    <t>SN1</t>
-  </si>
-  <si>
-    <t>SN2</t>
-  </si>
-  <si>
     <t>Sample</t>
   </si>
   <si>
@@ -89,9 +83,6 @@
   </si>
   <si>
     <t>Concentration (µg/L)</t>
-  </si>
-  <si>
-    <t>LYSAT</t>
   </si>
   <si>
     <t>Target</t>
@@ -143,6 +134,15 @@
   </si>
   <si>
     <t>siGENE_AB</t>
+  </si>
+  <si>
+    <t>LYSATE</t>
+  </si>
+  <si>
+    <t>SUPERNATANT1</t>
+  </si>
+  <si>
+    <t>SUPERNATANT2</t>
   </si>
 </sst>
 </file>
@@ -2917,7 +2917,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -2937,13 +2937,13 @@
         <v>3</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>9</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>1</v>
@@ -2952,19 +2952,19 @@
         <v>0</v>
       </c>
       <c r="H1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="N1" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -2972,10 +2972,10 @@
         <v>43385</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>4</v>
@@ -3206,7 +3206,7 @@
   <dimension ref="A1:O28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M20" sqref="M20:O28"/>
+      <selection activeCell="E2" sqref="E2:E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3231,22 +3231,22 @@
         <v>3</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>23</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>1</v>
@@ -3255,19 +3255,19 @@
         <v>0</v>
       </c>
       <c r="K1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
@@ -3288,16 +3288,16 @@
         <v>siNTP</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I2" s="1">
         <v>2.2237819999999999</v>
@@ -3340,16 +3340,16 @@
         <v>siNTP</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I3" s="1">
         <v>2.2158340000000001</v>
@@ -3392,16 +3392,16 @@
         <v>siNTP</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I4" s="1">
         <v>2.1184539999999998</v>
@@ -3444,16 +3444,16 @@
         <v>siNTP</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="F5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="H5" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I5" s="1">
         <v>2.2278159999999998</v>
@@ -3496,16 +3496,16 @@
         <v>siNTP</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="F6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="H6" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I6" s="1">
         <v>2.1676190000000002</v>
@@ -3548,16 +3548,16 @@
         <v>siNTP</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="F7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="H7" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I7" s="1">
         <v>1.852355</v>
@@ -3600,16 +3600,16 @@
         <v>siNTP</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I8" s="1">
         <v>1.2202679999999999</v>
@@ -3652,16 +3652,16 @@
         <v>siNTP</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I9" s="1">
         <v>1.0702229999999999</v>
@@ -3704,16 +3704,16 @@
         <v>siNTP</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I10" s="1">
         <v>1.1440079999999999</v>
@@ -3756,16 +3756,16 @@
         <v>siNTP</v>
       </c>
       <c r="E11" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="F11" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G11" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H11" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I11">
         <v>0.32773550000000001</v>
@@ -3810,16 +3810,16 @@
         <v>siNTP</v>
       </c>
       <c r="E12" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="F12" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G12" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H12" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I12">
         <v>0.24623400000000001</v>
@@ -3864,16 +3864,16 @@
         <v>siNTP</v>
       </c>
       <c r="E13" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="F13" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G13" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I13">
         <v>0.39383200000000002</v>
@@ -3918,16 +3918,16 @@
         <v>siNTP</v>
       </c>
       <c r="E14" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="F14" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G14" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H14" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I14">
         <v>0.44617099999999998</v>
@@ -3972,16 +3972,16 @@
         <v>siNTP</v>
       </c>
       <c r="E15" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="F15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G15" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H15" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I15">
         <v>0.31113239999999998</v>
@@ -4026,16 +4026,16 @@
         <v>siNTP</v>
       </c>
       <c r="E16" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="F16" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G16" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H16" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I16">
         <v>0.28233140000000001</v>
@@ -4080,16 +4080,16 @@
         <v>siNTP</v>
       </c>
       <c r="E17" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="F17" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G17" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H17" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I17">
         <v>0.57026480000000002</v>
@@ -4134,16 +4134,16 @@
         <v>siNTP</v>
       </c>
       <c r="E18" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="F18" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G18" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H18" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I18">
         <v>0.57411999999999996</v>
@@ -4188,16 +4188,16 @@
         <v>siNTP</v>
       </c>
       <c r="E19" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="F19" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G19" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H19" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I19">
         <v>0.36290929999999999</v>
@@ -4241,17 +4241,17 @@
         <f t="shared" ca="1" si="0"/>
         <v>siNTP</v>
       </c>
-      <c r="E20" s="1" t="s">
-        <v>6</v>
+      <c r="E20" t="s">
+        <v>36</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I20" s="1">
         <v>0.55904220000000004</v>
@@ -4295,17 +4295,17 @@
         <f t="shared" ca="1" si="0"/>
         <v>siNTP</v>
       </c>
-      <c r="E21" s="1" t="s">
-        <v>6</v>
+      <c r="E21" t="s">
+        <v>36</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I21" s="1">
         <v>0.53190990000000005</v>
@@ -4349,17 +4349,17 @@
         <f t="shared" ca="1" si="0"/>
         <v>siNTP</v>
       </c>
-      <c r="E22" s="1" t="s">
-        <v>6</v>
+      <c r="E22" t="s">
+        <v>36</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I22" s="1">
         <v>0.64766219999999997</v>
@@ -4403,17 +4403,17 @@
         <f ca="1">RIGHT(CELL("nomfichier",A19),LEN(CELL("nomfichier",A19))-SEARCH("]",CELL("nomfichier",A19)))</f>
         <v>siNTP</v>
       </c>
-      <c r="E23" s="1" t="s">
-        <v>6</v>
+      <c r="E23" t="s">
+        <v>36</v>
       </c>
       <c r="F23" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G23" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G23" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="H23" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I23" s="1">
         <v>1.169028</v>
@@ -4457,17 +4457,17 @@
         <f t="shared" ref="D24:D25" ca="1" si="9">RIGHT(CELL("nomfichier",A23),LEN(CELL("nomfichier",A23))-SEARCH("]",CELL("nomfichier",A23)))</f>
         <v>siNTP</v>
       </c>
-      <c r="E24" s="1" t="s">
-        <v>6</v>
+      <c r="E24" t="s">
+        <v>36</v>
       </c>
       <c r="F24" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G24" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G24" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="H24" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I24" s="1">
         <v>1.1429769999999999</v>
@@ -4511,17 +4511,17 @@
         <f t="shared" ca="1" si="9"/>
         <v>siNTP</v>
       </c>
-      <c r="E25" s="1" t="s">
-        <v>6</v>
+      <c r="E25" t="s">
+        <v>36</v>
       </c>
       <c r="F25" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G25" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G25" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="H25" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I25" s="1">
         <v>0.96513199999999999</v>
@@ -4565,17 +4565,17 @@
         <f ca="1">RIGHT(CELL("nomfichier",A22),LEN(CELL("nomfichier",A22))-SEARCH("]",CELL("nomfichier",A22)))</f>
         <v>siNTP</v>
       </c>
-      <c r="E26" s="1" t="s">
-        <v>6</v>
+      <c r="E26" t="s">
+        <v>36</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I26" s="1">
         <v>1.0478499999999999</v>
@@ -4619,17 +4619,17 @@
         <f t="shared" ca="1" si="0"/>
         <v>siNTP</v>
       </c>
-      <c r="E27" s="1" t="s">
-        <v>6</v>
+      <c r="E27" t="s">
+        <v>36</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I27" s="1">
         <v>1.211946</v>
@@ -4673,17 +4673,17 @@
         <f t="shared" ca="1" si="0"/>
         <v>siNTP</v>
       </c>
-      <c r="E28" s="1" t="s">
-        <v>6</v>
+      <c r="E28" t="s">
+        <v>36</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I28" s="1">
         <v>1.3886689999999999</v>
@@ -4721,7 +4721,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E28"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4745,22 +4747,22 @@
         <v>3</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>23</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>1</v>
@@ -4769,19 +4771,19 @@
         <v>0</v>
       </c>
       <c r="K1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
@@ -4802,16 +4804,16 @@
         <v>siGENE</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I2" s="1">
         <v>2.1637360000000001</v>
@@ -4854,16 +4856,16 @@
         <v>siGENE</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I3" s="1">
         <v>2.176561</v>
@@ -4906,16 +4908,16 @@
         <v>siGENE</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I4" s="1">
         <v>2.0526070000000001</v>
@@ -4958,16 +4960,16 @@
         <v>siGENE</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I5" s="1">
         <v>1.715525</v>
@@ -5010,16 +5012,16 @@
         <v>siGENE</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I6" s="1">
         <v>1.8654409999999999</v>
@@ -5062,16 +5064,16 @@
         <v>siGENE</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I7" s="1">
         <v>1.2349289999999999</v>
@@ -5114,16 +5116,16 @@
         <v>siGENE</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I8" s="1">
         <v>1.0481180000000001</v>
@@ -5166,16 +5168,16 @@
         <v>siGENE</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I9" s="1">
         <v>0.90987790000000002</v>
@@ -5218,16 +5220,16 @@
         <v>siGENE</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I10" s="1">
         <v>0.21075260000000001</v>
@@ -5270,16 +5272,16 @@
         <v>siGENE</v>
       </c>
       <c r="E11" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="F11" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G11" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H11" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I11">
         <v>0.64759860000000002</v>
@@ -5324,16 +5326,16 @@
         <v>siGENE</v>
       </c>
       <c r="E12" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="F12" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G12" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H12" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I12">
         <v>0.63279129999999995</v>
@@ -5378,16 +5380,16 @@
         <v>siGENE</v>
       </c>
       <c r="E13" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="F13" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G13" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I13">
         <v>0.35778369999999998</v>
@@ -5432,16 +5434,16 @@
         <v>siGENE</v>
       </c>
       <c r="E14" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="F14" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G14" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H14" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I14">
         <v>0.62543519999999997</v>
@@ -5486,16 +5488,16 @@
         <v>siGENE</v>
       </c>
       <c r="E15" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="F15" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G15" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H15" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I15">
         <v>1.398439</v>
@@ -5540,16 +5542,16 @@
         <v>siGENE</v>
       </c>
       <c r="E16" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="F16" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G16" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H16" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I16">
         <v>1.1261380000000001</v>
@@ -5594,16 +5596,16 @@
         <v>siGENE</v>
       </c>
       <c r="E17" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="F17" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G17" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H17" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I17">
         <v>0.67052080000000003</v>
@@ -5648,16 +5650,16 @@
         <v>siGENE</v>
       </c>
       <c r="E18" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="F18" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G18" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H18" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I18">
         <v>0.4135143</v>
@@ -5702,16 +5704,16 @@
         <v>siGENE</v>
       </c>
       <c r="E19" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="F19" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G19" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H19" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I19">
         <v>0.3928507</v>
@@ -5755,17 +5757,17 @@
         <f ca="1">RIGHT(CELL("nomfichier",A28),LEN(CELL("nomfichier",A28))-SEARCH("]",CELL("nomfichier",A28)))</f>
         <v>siGENE</v>
       </c>
-      <c r="E20" s="1" t="s">
-        <v>6</v>
+      <c r="E20" t="s">
+        <v>36</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I20" s="1">
         <v>0.93408610000000003</v>
@@ -5809,17 +5811,17 @@
         <f ca="1">RIGHT(CELL("nomfichier",A29),LEN(CELL("nomfichier",A29))-SEARCH("]",CELL("nomfichier",A29)))</f>
         <v>siGENE</v>
       </c>
-      <c r="E21" s="1" t="s">
-        <v>6</v>
+      <c r="E21" t="s">
+        <v>36</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I21" s="1">
         <v>0.61548210000000003</v>
@@ -5863,17 +5865,17 @@
         <f ca="1">RIGHT(CELL("nomfichier",A30),LEN(CELL("nomfichier",A30))-SEARCH("]",CELL("nomfichier",A30)))</f>
         <v>siGENE</v>
       </c>
-      <c r="E22" s="1" t="s">
-        <v>6</v>
+      <c r="E22" t="s">
+        <v>36</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I22" s="1">
         <v>0.65917289999999995</v>
@@ -5917,17 +5919,17 @@
         <f t="shared" ref="D23:D25" ca="1" si="9">RIGHT(CELL("nomfichier",A28),LEN(CELL("nomfichier",A28))-SEARCH("]",CELL("nomfichier",A28)))</f>
         <v>siGENE</v>
       </c>
-      <c r="E23" s="1" t="s">
-        <v>6</v>
+      <c r="E23" t="s">
+        <v>36</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I23" s="1">
         <v>1.1935039999999999</v>
@@ -5971,17 +5973,17 @@
         <f t="shared" ca="1" si="9"/>
         <v>siGENE</v>
       </c>
-      <c r="E24" s="1" t="s">
-        <v>6</v>
+      <c r="E24" t="s">
+        <v>36</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I24" s="1">
         <v>1.0586679999999999</v>
@@ -6025,17 +6027,17 @@
         <f t="shared" ca="1" si="9"/>
         <v>siGENE</v>
       </c>
-      <c r="E25" s="1" t="s">
-        <v>6</v>
+      <c r="E25" t="s">
+        <v>36</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I25" s="1">
         <v>1.0790280000000001</v>
@@ -6079,17 +6081,17 @@
         <f t="shared" ca="1" si="3"/>
         <v>siGENE</v>
       </c>
-      <c r="E26" s="1" t="s">
-        <v>6</v>
+      <c r="E26" t="s">
+        <v>36</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I26" s="1">
         <v>1.2571840000000001</v>
@@ -6133,17 +6135,17 @@
         <f t="shared" ca="1" si="3"/>
         <v>siGENE</v>
       </c>
-      <c r="E27" s="1" t="s">
-        <v>6</v>
+      <c r="E27" t="s">
+        <v>36</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I27" s="1">
         <v>1.146774</v>
@@ -6187,17 +6189,17 @@
         <f t="shared" ca="1" si="3"/>
         <v>siGENE</v>
       </c>
-      <c r="E28" s="1" t="s">
-        <v>6</v>
+      <c r="E28" t="s">
+        <v>36</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I28" s="1">
         <v>1.229312</v>
